--- a/data/input/employee_absence_data_22.xlsx
+++ b/data/input/employee_absence_data_22.xlsx
@@ -464,69 +464,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44400</v>
+        <v>80366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benício Câmara</t>
+          <t>Sr. Luiz Miguel Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45086</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>10790.69</v>
+        <v>4320.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79903</v>
+        <v>16059</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camila Oliveira</t>
+          <t>Clara Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45102</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>5585.78</v>
+        <v>2203.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64331</v>
+        <v>74319</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joaquim Barros</t>
+          <t>Dr. Gael Moura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,89 +536,89 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45083</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>10597.97</v>
+        <v>5662.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70585</v>
+        <v>47304</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lorenzo Rodrigues</t>
+          <t>Maria Alice Macedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>10051.7</v>
+        <v>8922.530000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7488</v>
+        <v>29914</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heitor Vargas</t>
+          <t>Sr. Igor da Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>11451.33</v>
+        <v>3713.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1509</v>
+        <v>96546</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Davi Monteiro</t>
+          <t>Helena Macedo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,19 +630,19 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45080</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>10909.06</v>
+        <v>4262.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92964</v>
+        <v>76429</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davi Miguel Jesus</t>
+          <t>Kaique da Luz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,104 +652,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>2745.2</v>
+        <v>5975.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67039</v>
+        <v>13015</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mateus Araújo</t>
+          <t>Vinícius Camargo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45083</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>11642.3</v>
+        <v>6848.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26150</v>
+        <v>15388</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Davi Lima</t>
+          <t>João Lucas Andrade</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>8314.91</v>
+        <v>3889.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4707</v>
+        <v>80453</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mateus Rocha</t>
+          <t>João Lucas Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>8395.1</v>
+        <v>8909.290000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_22.xlsx
+++ b/data/input/employee_absence_data_22.xlsx
@@ -464,103 +464,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80366</v>
+        <v>19391</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Luiz Miguel Carvalho</t>
+          <t>Srta. Hadassa Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45078</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>4320.45</v>
+        <v>2864.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16059</v>
+        <v>81762</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clara Costa</t>
+          <t>Antônio Duarte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45093</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>2203.16</v>
+        <v>4606.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74319</v>
+        <v>16982</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Gael Moura</t>
+          <t>Ana Carolina Pinto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>5662.22</v>
+        <v>7226.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>47304</v>
+        <v>67726</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Alice Macedo</t>
+          <t>Liam Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,19 +572,19 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45083</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>8922.530000000001</v>
+        <v>7731.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29914</v>
+        <v>93049</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Igor da Rocha</t>
+          <t>Dra. Joana Farias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,55 +594,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>3713.32</v>
+        <v>3148.81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96546</v>
+        <v>62117</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Helena Macedo</t>
+          <t>Melina Aparecida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>4262.92</v>
+        <v>7220.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76429</v>
+        <v>99415</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kaique da Luz</t>
+          <t>Stella Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,31 +652,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45090</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>5975.62</v>
+        <v>5020.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13015</v>
+        <v>63279</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vinícius Camargo</t>
+          <t>Vitor Hugo Pimenta</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,56 +685,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45092</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>6848.67</v>
+        <v>5958.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15388</v>
+        <v>57980</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Lucas Andrade</t>
+          <t>Amanda Costela</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45096</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>3889.13</v>
+        <v>4954.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80453</v>
+        <v>31790</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Lucas Cardoso</t>
+          <t>Alice Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>8909.290000000001</v>
+        <v>6285.94</v>
       </c>
     </row>
   </sheetData>
